--- a/fuzzdog.xlsx
+++ b/fuzzdog.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3248526/code/pedalparts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA6F5D7D-F7F5-8C4D-805B-DC0398B52DD5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="brass master" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="flender" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="supreaux bolt" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="harmonic percolator" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="fuzz rite" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="scrambler" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="ampregulator" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="template" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="hooowwf" sheetId="9" r:id="rId1"/>
+    <sheet name="brass master" sheetId="1" r:id="rId2"/>
+    <sheet name="flender" sheetId="2" r:id="rId3"/>
+    <sheet name="supreaux bolt" sheetId="3" r:id="rId4"/>
+    <sheet name="harmonic percolator" sheetId="4" r:id="rId5"/>
+    <sheet name="fuzz rite" sheetId="5" r:id="rId6"/>
+    <sheet name="scrambler" sheetId="6" r:id="rId7"/>
+    <sheet name="ampregulator" sheetId="7" r:id="rId8"/>
+    <sheet name="template" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -27,375 +33,375 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="112">
-  <si>
-    <t xml:space="preserve">Resistors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N4148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">390R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N3392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N5308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">820R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42TM018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Film</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6K8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4n7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enclosure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3pdt toggle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N5088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N4001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B20K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N34A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A50K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1K5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3K9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8K2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N5457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7660S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22n</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="118">
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>pst</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Pots</t>
+  </si>
+  <si>
+    <t>150R</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>B10K</t>
+  </si>
+  <si>
+    <t>390R</t>
+  </si>
+  <si>
+    <t>2N3392</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>2N5308</t>
+  </si>
+  <si>
+    <t>820R</t>
+  </si>
+  <si>
+    <t>42TM018</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>3K3</t>
+  </si>
+  <si>
+    <t>4K7</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>6K8</t>
+  </si>
+  <si>
+    <t>4n7</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>47n</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>22K</t>
+  </si>
+  <si>
+    <t>fsw</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>enclosure</t>
+  </si>
+  <si>
+    <t>82K</t>
+  </si>
+  <si>
+    <t>dc jack</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>150K</t>
+  </si>
+  <si>
+    <t>knob</t>
+  </si>
+  <si>
+    <t>220K</t>
+  </si>
+  <si>
+    <t>470K</t>
+  </si>
+  <si>
+    <t>3pdt toggle</t>
+  </si>
+  <si>
+    <t>spdt</t>
+  </si>
+  <si>
+    <t>1M5</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>680R</t>
+  </si>
+  <si>
+    <t>2N5088</t>
+  </si>
+  <si>
+    <t>A10K</t>
+  </si>
+  <si>
+    <t>1N4001</t>
+  </si>
+  <si>
+    <t>B20K</t>
+  </si>
+  <si>
+    <t>1N34A</t>
+  </si>
+  <si>
+    <t>A50K</t>
+  </si>
+  <si>
+    <t>1K5</t>
+  </si>
+  <si>
+    <t>B100K</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>8K2</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>18K</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>27K</t>
+  </si>
+  <si>
+    <t>3n3</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>120K</t>
+  </si>
+  <si>
+    <t>560K</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>J201</t>
+  </si>
+  <si>
+    <t>A100K</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>470p</t>
+  </si>
+  <si>
+    <t>2N5457</t>
+  </si>
+  <si>
+    <t>A500K</t>
+  </si>
+  <si>
+    <t>7660S</t>
+  </si>
+  <si>
+    <t>TRIM100K</t>
+  </si>
+  <si>
+    <t>2K7</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>22n</t>
   </si>
   <si>
     <t xml:space="preserve">spdt </t>
   </si>
   <si>
-    <t xml:space="preserve">10u 35v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33u 35v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u 35v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A100K straight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100p silver mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N3565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A50K straight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n ceramic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47n greenie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47u tantalum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B50K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPSA13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N3904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4u7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampregulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1M / B1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4u7 35v</t>
+    <t>10u 35v</t>
+  </si>
+  <si>
+    <t>33u 35v</t>
+  </si>
+  <si>
+    <t>100u 35v</t>
+  </si>
+  <si>
+    <t>2N404</t>
+  </si>
+  <si>
+    <t>A100K straight</t>
+  </si>
+  <si>
+    <t>91K</t>
+  </si>
+  <si>
+    <t>100p silver mica</t>
+  </si>
+  <si>
+    <t>2N3565</t>
+  </si>
+  <si>
+    <t>A50K straight</t>
+  </si>
+  <si>
+    <t>100n ceramic</t>
+  </si>
+  <si>
+    <t>750K</t>
+  </si>
+  <si>
+    <t>47n greenie</t>
+  </si>
+  <si>
+    <t>47u tantalum</t>
+  </si>
+  <si>
+    <t>B500K</t>
+  </si>
+  <si>
+    <t>BC107</t>
+  </si>
+  <si>
+    <t>BC108</t>
+  </si>
+  <si>
+    <t>2n2</t>
+  </si>
+  <si>
+    <t>B50K</t>
+  </si>
+  <si>
+    <t>MPSA13</t>
+  </si>
+  <si>
+    <t>2N3904</t>
+  </si>
+  <si>
+    <t>4u7</t>
+  </si>
+  <si>
+    <t>Ampregulator</t>
+  </si>
+  <si>
+    <t>47R</t>
+  </si>
+  <si>
+    <t>A1M</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>47p</t>
+  </si>
+  <si>
+    <t>C1M / B1M</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>2M2</t>
+  </si>
+  <si>
+    <t>470n</t>
+  </si>
+  <si>
+    <t>4u7 35v</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>39K</t>
+  </si>
+  <si>
+    <t>390K</t>
+  </si>
+  <si>
+    <t>Led 5mmR</t>
+  </si>
+  <si>
+    <t>6n8</t>
+  </si>
+  <si>
+    <t>2N1308/AC176/AC127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$$]#,##0.00;[RED]\-[$$]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$]#,##0.00;[Red]\-[$$]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="32"/>
@@ -404,7 +410,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -419,8 +425,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -428,12 +434,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -463,14 +475,14 @@
     </fill>
   </fills>
   <borders count="13">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -479,7 +491,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF00599D"/>
       </left>
@@ -490,7 +502,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF00599D"/>
@@ -501,32 +513,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF00599D"/>
       </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF00599D"/>
       </right>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF00599D"/>
       </left>
@@ -539,7 +563,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -550,7 +574,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF00599D"/>
@@ -563,7 +587,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF00599D"/>
       </left>
@@ -574,7 +598,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -583,7 +607,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF00599D"/>
@@ -595,161 +619,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -808,63 +721,365 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2529529-6779-7A40-8737-2A84A1E8BAE5}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P34" activeCellId="0" sqref="P34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="8.83203125" style="3"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="3"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -914,68 +1129,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="K3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="15" t="n">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
       <c r="P3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="K4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="L4" s="21">
+        <v>2</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="19"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="21"/>
+      <c r="P4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1</v>
+      </c>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="17">
+        <v>3</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -984,24 +1203,28 @@
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="K5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="21" t="n">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="L5" s="21">
+        <v>4</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="19"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1</v>
+      </c>
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
@@ -1009,20 +1232,20 @@
       <c r="G6" s="21"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
-      <c r="K6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="18"/>
       <c r="N6" s="19"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>1</v>
+      </c>
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -1040,11 +1263,11 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="18"/>
@@ -1062,11 +1285,11 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="B9" s="17">
         <v>3</v>
       </c>
       <c r="C9" s="18"/>
@@ -1084,12 +1307,12 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="17" t="n">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -1106,13 +1329,9 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="F11" s="4" t="s">
@@ -1136,19 +1355,19 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="B12" s="17">
+        <v>4</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="15" t="n">
+        <v>116</v>
+      </c>
+      <c r="G12" s="15">
         <v>2</v>
       </c>
       <c r="H12" s="9"/>
@@ -1162,16 +1381,20 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="F13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="21">
+        <v>8</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -1182,31 +1405,27 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
-        <v>3</v>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
+        <v>4</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17">
         <v>3</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
-      <c r="F14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="21" t="n">
-        <v>2</v>
-      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="K14" s="16"/>
@@ -1214,21 +1433,13 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>2</v>
-      </c>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
-      <c r="F15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="21" t="n">
-        <v>4</v>
-      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="K15" s="16"/>
@@ -1248,11 +1459,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="B16" s="17">
         <v>1</v>
       </c>
       <c r="C16" s="18"/>
@@ -1268,19 +1479,15 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="17" t="n">
-        <v>3</v>
-      </c>
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="F17" s="16"/>
@@ -1294,19 +1501,15 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="17" t="n">
-        <v>1</v>
-      </c>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="F18" s="16"/>
@@ -1320,13 +1523,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -1342,19 +1545,15 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="17" t="n">
-        <v>3</v>
-      </c>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="F20" s="16"/>
@@ -1368,19 +1567,15 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
-        <v>3</v>
+      <c r="Q20" s="21">
+        <v>4</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="17" t="n">
-        <v>2</v>
-      </c>
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="F21" s="16"/>
@@ -1396,13 +1591,9 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="17" t="n">
-        <v>1</v>
-      </c>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="F22" s="16"/>
@@ -1414,15 +1605,15 @@
       <c r="M22" s="18"/>
       <c r="N22" s="19"/>
       <c r="P22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="21" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="21">
         <v>1</v>
       </c>
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -1435,22 +1626,14 @@
       <c r="L23" s="21"/>
       <c r="M23" s="18"/>
       <c r="N23" s="19"/>
-      <c r="P23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="21"/>
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="17" t="n">
-        <v>4</v>
-      </c>
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="F24" s="16"/>
@@ -1466,7 +1649,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -1484,7 +1667,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -1502,7 +1685,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -1520,7 +1703,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -1546,16 +1729,16 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="F29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="15" t="n">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
@@ -1568,17 +1751,13 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
-      <c r="F30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="K30" s="16"/>
@@ -1590,17 +1769,13 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="F31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
       <c r="K31" s="16"/>
@@ -1612,7 +1787,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -1630,7 +1805,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -1648,7 +1823,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -1666,53 +1841,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
-        <v>33</v>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
+        <v>23</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
-        <v>17</v>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
+        <v>14</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
-        <v>13</v>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
+        <v>8</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>10</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -1720,10 +1895,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1731,58 +1905,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1832,11 +2001,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -1846,55 +2015,55 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
       <c r="K3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" s="15">
         <v>5</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
       <c r="P3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>3</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="K4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="L4" s="21">
+        <v>6</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="19"/>
-      <c r="P4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="F5" s="16"/>
@@ -1902,27 +2071,23 @@
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="K5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="21" t="n">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="L5" s="21">
+        <v>1</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="19"/>
-      <c r="P5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="21"/>
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
       <c r="C6" s="18"/>
@@ -1931,26 +2096,22 @@
       <c r="G6" s="21"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1</v>
+      </c>
       <c r="M6" s="18"/>
       <c r="N6" s="19"/>
-      <c r="P6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="17" t="n">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="F7" s="16"/>
@@ -1966,12 +2127,12 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="n">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
@@ -1988,12 +2149,12 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="17" t="n">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -2010,12 +2171,12 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="17" t="n">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -2032,12 +2193,12 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
@@ -2062,20 +2223,20 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
@@ -2088,20 +2249,16 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>3</v>
-      </c>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="F13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -2112,30 +2269,30 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
-        <v>4</v>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
+        <v>3</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="17">
+        <v>3</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="21" t="n">
-        <v>1</v>
+      <c r="G14" s="21">
+        <v>2</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
@@ -2144,11 +2301,11 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="B15" s="17">
         <v>2</v>
       </c>
       <c r="C15" s="18"/>
@@ -2156,7 +2313,7 @@
       <c r="F15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="21">
         <v>4</v>
       </c>
       <c r="H15" s="18"/>
@@ -2178,11 +2335,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="B16" s="17">
         <v>1</v>
       </c>
       <c r="C16" s="18"/>
@@ -2198,17 +2355,17 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
-        <v>2</v>
+      <c r="Q16" s="15">
+        <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17">
         <v>3</v>
       </c>
       <c r="C17" s="18"/>
@@ -2224,17 +2381,17 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B18" s="17">
         <v>1</v>
       </c>
       <c r="C18" s="18"/>
@@ -2250,19 +2407,15 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="17" t="n">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="F19" s="16"/>
@@ -2276,13 +2429,943 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="P20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>3</v>
+      </c>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="P22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>1</v>
+      </c>
+      <c r="R22" s="18"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="P23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>1</v>
+      </c>
+      <c r="R23" s="18"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="17">
+        <v>4</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
+    </row>
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="19"/>
+    </row>
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="F28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="15">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="19"/>
+    </row>
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="F30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="F31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="19"/>
+    </row>
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
+        <v>33</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
+        <v>17</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
+        <v>13</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
+        <v>10</v>
+      </c>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="15">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="K4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="21">
+        <v>4</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="P5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="P6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="17">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="F13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="P13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
+        <v>4</v>
+      </c>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="F14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="F15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="21">
+        <v>4</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="P15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="P16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>2</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="P17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1</v>
+      </c>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="P18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>1</v>
+      </c>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="P19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>2</v>
+      </c>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -2298,13 +3381,13 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
+      <c r="Q20" s="21">
         <v>4</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -2322,7 +3405,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -2340,7 +3423,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -2358,7 +3441,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -2376,7 +3459,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -2394,7 +3477,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -2412,7 +3495,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -2430,7 +3513,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -2456,7 +3539,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -2464,7 +3547,7 @@
       <c r="F29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15">
         <v>9</v>
       </c>
       <c r="H29" s="9"/>
@@ -2478,7 +3561,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -2486,7 +3569,7 @@
       <c r="F30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="21">
         <v>1</v>
       </c>
       <c r="H30" s="18"/>
@@ -2500,7 +3583,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -2518,7 +3601,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -2536,7 +3619,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -2554,7 +3637,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -2572,53 +3655,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>29</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>17</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>10</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>10</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2626,68 +3709,63 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +3815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -2749,7 +3827,7 @@
       <c r="K3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="15" t="n">
+      <c r="L3" s="15">
         <v>2</v>
       </c>
       <c r="M3" s="9"/>
@@ -2757,17 +3835,17 @@
       <c r="P3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="15">
         <v>1</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="18"/>
@@ -2775,7 +3853,7 @@
       <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="15">
         <v>2</v>
       </c>
       <c r="H4" s="9"/>
@@ -2783,7 +3861,7 @@
       <c r="K4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="21">
         <v>1</v>
       </c>
       <c r="M4" s="18"/>
@@ -2791,13 +3869,13 @@
       <c r="P4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="21" t="n">
+      <c r="Q4" s="21">
         <v>2</v>
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -2809,7 +3887,7 @@
       <c r="K5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="21" t="n">
+      <c r="L5" s="21">
         <v>1</v>
       </c>
       <c r="M5" s="18"/>
@@ -2817,17 +3895,17 @@
       <c r="P5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="21" t="n">
+      <c r="Q5" s="21">
         <v>3</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
       <c r="C6" s="18"/>
@@ -2839,7 +3917,7 @@
       <c r="K6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="21" t="n">
+      <c r="L6" s="21">
         <v>2</v>
       </c>
       <c r="M6" s="18"/>
@@ -2849,11 +3927,11 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="18"/>
@@ -2865,7 +3943,7 @@
       <c r="K7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="21" t="n">
+      <c r="L7" s="21">
         <v>1</v>
       </c>
       <c r="M7" s="18"/>
@@ -2875,11 +3953,11 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
       <c r="C8" s="18"/>
@@ -2897,7 +3975,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -2915,11 +3993,11 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
       <c r="C10" s="18"/>
@@ -2937,11 +4015,11 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
       <c r="C11" s="18"/>
@@ -2967,7 +4045,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -2975,7 +4053,7 @@
       <c r="F12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="15">
         <v>2</v>
       </c>
       <c r="H12" s="9"/>
@@ -2989,11 +4067,11 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="17">
         <v>2</v>
       </c>
       <c r="C13" s="18"/>
@@ -3001,7 +4079,7 @@
       <c r="F13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
       <c r="H13" s="18"/>
@@ -3013,17 +4091,17 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
         <v>6</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -3031,7 +4109,7 @@
       <c r="F14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="21" t="n">
+      <c r="G14" s="21">
         <v>2</v>
       </c>
       <c r="H14" s="18"/>
@@ -3041,7 +4119,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -3049,7 +4127,7 @@
       <c r="F15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="21">
         <v>1</v>
       </c>
       <c r="H15" s="18"/>
@@ -3071,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -3087,13 +4165,13 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -3109,13 +4187,13 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -3131,13 +4209,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -3153,13 +4231,13 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -3175,13 +4253,13 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
+      <c r="Q20" s="21">
         <v>3</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -3199,7 +4277,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -3215,13 +4293,13 @@
       <c r="P22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" s="21" t="n">
+      <c r="Q22" s="21">
         <v>1</v>
       </c>
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -3239,7 +4317,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -3257,7 +4335,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -3275,7 +4353,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -3293,7 +4371,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -3311,7 +4389,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -3337,7 +4415,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -3345,7 +4423,7 @@
       <c r="F29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15">
         <v>3</v>
       </c>
       <c r="H29" s="9"/>
@@ -3359,7 +4437,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -3367,7 +4445,7 @@
       <c r="F30" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="21">
         <v>1</v>
       </c>
       <c r="H30" s="18"/>
@@ -3381,7 +4459,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -3389,7 +4467,7 @@
       <c r="F31" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="21">
         <v>1</v>
       </c>
       <c r="H31" s="18"/>
@@ -3403,7 +4481,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -3421,7 +4499,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -3439,7 +4517,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -3457,53 +4535,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>10</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>15</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>7</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>9</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -3511,69 +4589,65 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3623,11 +4697,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -3639,7 +4713,7 @@
       <c r="K3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="15" t="n">
+      <c r="L3" s="15">
         <v>1</v>
       </c>
       <c r="M3" s="9"/>
@@ -3651,11 +4725,11 @@
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="18"/>
@@ -3663,7 +4737,7 @@
       <c r="F4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="H4" s="9"/>
@@ -3671,7 +4745,7 @@
       <c r="K4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="21">
         <v>1</v>
       </c>
       <c r="M4" s="18"/>
@@ -3683,11 +4757,11 @@
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="18"/>
@@ -3695,7 +4769,7 @@
       <c r="F5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="21">
         <v>2</v>
       </c>
       <c r="H5" s="18"/>
@@ -3709,11 +4783,11 @@
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
       <c r="C6" s="18"/>
@@ -3731,7 +4805,7 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -3749,7 +4823,7 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -3767,7 +4841,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -3785,7 +4859,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -3803,7 +4877,7 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -3829,7 +4903,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -3837,7 +4911,7 @@
       <c r="F12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="15">
         <v>1</v>
       </c>
       <c r="H12" s="9"/>
@@ -3851,7 +4925,7 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -3867,17 +4941,17 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
         <v>0</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -3891,7 +4965,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -3917,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -3933,13 +5007,13 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -3955,13 +5029,13 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -3977,13 +5051,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -3999,13 +5073,13 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -4021,13 +5095,13 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
+      <c r="Q20" s="21">
         <v>2</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -4045,7 +5119,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -4063,7 +5137,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -4081,7 +5155,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -4099,7 +5173,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -4117,7 +5191,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -4135,7 +5209,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -4153,7 +5227,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -4179,7 +5253,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -4187,7 +5261,7 @@
       <c r="F29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15">
         <v>1</v>
       </c>
       <c r="H29" s="9"/>
@@ -4201,7 +5275,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -4219,7 +5293,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -4237,7 +5311,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -4255,7 +5329,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -4273,7 +5347,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -4291,53 +5365,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>5</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>5</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>2</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>7</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -4345,69 +5419,65 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4457,11 +5527,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>4</v>
       </c>
       <c r="C3" s="9"/>
@@ -4473,7 +5543,7 @@
       <c r="K3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="15" t="n">
+      <c r="L3" s="15">
         <v>1</v>
       </c>
       <c r="M3" s="9"/>
@@ -4485,11 +5555,11 @@
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="18"/>
@@ -4501,7 +5571,7 @@
       <c r="K4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="21">
         <v>1</v>
       </c>
       <c r="M4" s="18"/>
@@ -4513,7 +5583,7 @@
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -4525,7 +5595,7 @@
       <c r="K5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="21" t="n">
+      <c r="L5" s="21">
         <v>1</v>
       </c>
       <c r="M5" s="18"/>
@@ -4535,7 +5605,7 @@
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -4553,7 +5623,7 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -4571,7 +5641,7 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -4589,7 +5659,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -4607,7 +5677,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -4625,7 +5695,7 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -4651,7 +5721,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -4659,7 +5729,7 @@
       <c r="F12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="15">
         <v>2</v>
       </c>
       <c r="H12" s="9"/>
@@ -4673,7 +5743,7 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -4681,7 +5751,7 @@
       <c r="F13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="H13" s="18"/>
@@ -4693,17 +5763,17 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
         <v>0</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -4717,7 +5787,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -4743,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -4759,13 +5829,13 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -4781,13 +5851,13 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -4803,13 +5873,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -4825,13 +5895,13 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -4847,13 +5917,13 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
+      <c r="Q20" s="21">
         <v>2</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -4871,7 +5941,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -4889,7 +5959,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -4907,7 +5977,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -4925,7 +5995,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -4943,7 +6013,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -4961,7 +6031,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -4979,7 +6049,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -5005,7 +6075,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -5013,7 +6083,7 @@
       <c r="F29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15">
         <v>1</v>
       </c>
       <c r="H29" s="9"/>
@@ -5027,7 +6097,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -5045,7 +6115,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -5063,7 +6133,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -5081,7 +6151,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -5099,7 +6169,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -5117,53 +6187,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>5</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>5</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>3</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>7</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -5171,69 +6241,65 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5283,11 +6349,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -5299,7 +6365,7 @@
       <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="15" t="n">
+      <c r="L3" s="15">
         <v>5</v>
       </c>
       <c r="M3" s="9"/>
@@ -5307,17 +6373,17 @@
       <c r="P3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="15">
         <v>1</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="18"/>
@@ -5329,7 +6395,7 @@
       <c r="K4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="21">
         <v>3</v>
       </c>
       <c r="M4" s="18"/>
@@ -5337,17 +6403,17 @@
       <c r="P4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="21" t="n">
+      <c r="Q4" s="21">
         <v>1</v>
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="18"/>
@@ -5359,7 +6425,7 @@
       <c r="K5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="21" t="n">
+      <c r="L5" s="21">
         <v>1</v>
       </c>
       <c r="M5" s="18"/>
@@ -5367,13 +6433,13 @@
       <c r="P5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="21" t="n">
+      <c r="Q5" s="21">
         <v>1</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -5385,7 +6451,7 @@
       <c r="K6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="21" t="n">
+      <c r="L6" s="21">
         <v>1</v>
       </c>
       <c r="M6" s="18"/>
@@ -5395,11 +6461,11 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="18"/>
@@ -5417,11 +6483,11 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="18"/>
@@ -5439,11 +6505,11 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
       <c r="C9" s="18"/>
@@ -5461,11 +6527,11 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
       <c r="C10" s="18"/>
@@ -5483,11 +6549,11 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="17">
         <v>1</v>
       </c>
       <c r="C11" s="18"/>
@@ -5513,7 +6579,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -5523,7 +6589,7 @@
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="15">
         <v>1</v>
       </c>
       <c r="H12" s="9"/>
@@ -5537,11 +6603,11 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
       <c r="C13" s="18"/>
@@ -5557,21 +6623,21 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
         <v>3</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="17">
         <v>2</v>
       </c>
       <c r="C14" s="18"/>
@@ -5585,11 +6651,11 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
@@ -5615,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -5631,17 +6697,17 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="17">
         <v>3</v>
       </c>
       <c r="C17" s="18"/>
@@ -5657,13 +6723,13 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -5679,13 +6745,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -5701,13 +6767,13 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -5723,13 +6789,13 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
+      <c r="Q20" s="21">
         <v>3</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -5747,7 +6813,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -5765,7 +6831,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -5783,7 +6849,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -5801,7 +6867,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -5819,7 +6885,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -5837,7 +6903,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -5855,7 +6921,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -5881,7 +6947,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -5889,7 +6955,7 @@
       <c r="F29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15">
         <v>4</v>
       </c>
       <c r="H29" s="9"/>
@@ -5903,7 +6969,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -5911,7 +6977,7 @@
       <c r="F30" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="21">
         <v>3</v>
       </c>
       <c r="H30" s="18"/>
@@ -5925,7 +6991,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -5933,7 +6999,7 @@
       <c r="F31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="21">
         <v>1</v>
       </c>
       <c r="H31" s="18"/>
@@ -5947,7 +7013,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -5965,7 +7031,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -5983,7 +7049,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -6001,53 +7067,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>18</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>9</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>10</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>8</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -6055,71 +7121,67 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6169,11 +7231,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -6185,7 +7247,7 @@
       <c r="K3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="15" t="n">
+      <c r="L3" s="15">
         <v>8</v>
       </c>
       <c r="M3" s="9"/>
@@ -6193,17 +7255,17 @@
       <c r="P3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="15">
         <v>2</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="18"/>
@@ -6211,7 +7273,7 @@
       <c r="F4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="H4" s="9"/>
@@ -6219,7 +7281,7 @@
       <c r="K4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="21">
         <v>1</v>
       </c>
       <c r="M4" s="18"/>
@@ -6227,17 +7289,17 @@
       <c r="P4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="21" t="n">
+      <c r="Q4" s="21">
         <v>1</v>
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
       <c r="C5" s="18"/>
@@ -6249,7 +7311,7 @@
       <c r="K5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="21" t="n">
+      <c r="L5" s="21">
         <v>1</v>
       </c>
       <c r="M5" s="18"/>
@@ -6257,17 +7319,17 @@
       <c r="P5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="21" t="n">
+      <c r="Q5" s="21">
         <v>1</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
       <c r="C6" s="18"/>
@@ -6279,7 +7341,7 @@
       <c r="K6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="21" t="n">
+      <c r="L6" s="21">
         <v>2</v>
       </c>
       <c r="M6" s="18"/>
@@ -6289,11 +7351,11 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
       <c r="C7" s="18"/>
@@ -6311,11 +7373,11 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="18"/>
@@ -6333,11 +7395,11 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
       <c r="C9" s="18"/>
@@ -6355,11 +7417,11 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
       <c r="C10" s="18"/>
@@ -6377,11 +7439,11 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="17">
         <v>6</v>
       </c>
       <c r="C11" s="18"/>
@@ -6407,11 +7469,11 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="18"/>
@@ -6419,7 +7481,7 @@
       <c r="F12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="15">
         <v>2</v>
       </c>
       <c r="H12" s="9"/>
@@ -6433,11 +7495,11 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
       <c r="C13" s="18"/>
@@ -6445,7 +7507,7 @@
       <c r="F13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="H13" s="18"/>
@@ -6457,17 +7519,17 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
         <v>4</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -6475,7 +7537,7 @@
       <c r="F14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="21" t="n">
+      <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="H14" s="18"/>
@@ -6485,7 +7547,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -6493,7 +7555,7 @@
       <c r="F15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="21">
         <v>1</v>
       </c>
       <c r="H15" s="18"/>
@@ -6515,7 +7577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -6523,7 +7585,7 @@
       <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="21" t="n">
+      <c r="G16" s="21">
         <v>2</v>
       </c>
       <c r="H16" s="18"/>
@@ -6535,13 +7597,13 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -6549,7 +7611,7 @@
       <c r="F17" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="21">
         <v>1</v>
       </c>
       <c r="H17" s="18"/>
@@ -6561,13 +7623,13 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -6575,7 +7637,7 @@
       <c r="F18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="21" t="n">
+      <c r="G18" s="21">
         <v>1</v>
       </c>
       <c r="H18" s="18"/>
@@ -6587,13 +7649,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -6609,13 +7671,13 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -6631,13 +7693,13 @@
       <c r="P20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21" t="n">
+      <c r="Q20" s="21">
         <v>4</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -6655,7 +7717,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -6671,13 +7733,13 @@
       <c r="P22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="21" t="n">
+      <c r="Q22" s="21">
         <v>1</v>
       </c>
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -6695,7 +7757,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -6713,7 +7775,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -6731,7 +7793,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -6749,7 +7811,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -6767,7 +7829,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -6793,7 +7855,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -6801,7 +7863,7 @@
       <c r="F29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15">
         <v>3</v>
       </c>
       <c r="H29" s="9"/>
@@ -6815,7 +7877,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -6823,7 +7885,7 @@
       <c r="F30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="21">
         <v>3</v>
       </c>
       <c r="H30" s="18"/>
@@ -6837,7 +7899,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -6845,7 +7907,7 @@
       <c r="F31" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="21">
         <v>1</v>
       </c>
       <c r="H31" s="18"/>
@@ -6859,7 +7921,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -6877,7 +7939,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -6895,7 +7957,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -6913,53 +7975,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>26</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>18</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>12</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>10</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -6967,68 +8029,63 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5"/>
+    <col min="8" max="9" width="11.5" style="3"/>
+    <col min="10" max="12" width="11.5"/>
+    <col min="13" max="14" width="11.5" style="3"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5"/>
+    <col min="18" max="19" width="11.5" style="3"/>
+    <col min="20" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7078,12 +8135,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
@@ -7096,7 +8153,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -7114,7 +8171,7 @@
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -7132,7 +8189,7 @@
       <c r="R5" s="18"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -7150,7 +8207,7 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -7168,7 +8225,7 @@
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -7186,7 +8243,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -7204,7 +8261,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -7222,7 +8279,7 @@
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -7248,7 +8305,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -7266,7 +8323,7 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -7282,17 +8339,17 @@
       <c r="P13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="27" t="n">
-        <f aca="false">SUM(Q3:Q12)</f>
+      <c r="Q13" s="27">
+        <f>SUM(Q3:Q12)</f>
         <v>0</v>
       </c>
       <c r="R13" s="28"/>
-      <c r="S13" s="28" t="n">
-        <f aca="false">SUM(S3:S12)</f>
+      <c r="S13" s="28">
+        <f>SUM(S3:S12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -7306,7 +8363,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -7332,7 +8389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -7348,13 +8405,13 @@
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -7370,13 +8427,13 @@
       <c r="P17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="21" t="n">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -7392,13 +8449,13 @@
       <c r="P18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="21">
         <v>1</v>
       </c>
       <c r="R18" s="18"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -7414,13 +8471,13 @@
       <c r="P19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="21" t="n">
+      <c r="Q19" s="21">
         <v>2</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -7440,7 +8497,7 @@
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -7458,7 +8515,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -7476,7 +8533,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -7494,7 +8551,7 @@
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -7512,7 +8569,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -7530,7 +8587,7 @@
       <c r="R25" s="18"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -7548,7 +8605,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -7566,7 +8623,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -7592,7 +8649,7 @@
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -7610,7 +8667,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -7628,7 +8685,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -7646,7 +8703,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -7664,7 +8721,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -7682,7 +8739,7 @@
       <c r="R33" s="18"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24"/>
@@ -7700,53 +8757,53 @@
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27" t="n">
-        <f aca="false">SUM(B3:B34)</f>
+      <c r="B35" s="27">
+        <f>SUM(B3:B34)</f>
         <v>0</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="28" t="n">
-        <f aca="false">SUM(D3:D34)</f>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <f aca="false">SUM(G3:G34)</f>
+      <c r="G35" s="27">
+        <f>SUM(G3:G34)</f>
         <v>0</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="28" t="n">
-        <f aca="false">SUM(I3:I34)</f>
+      <c r="I35" s="28">
+        <f>SUM(I3:I34)</f>
         <v>0</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="27" t="n">
-        <f aca="false">SUM(L3:L34)</f>
+      <c r="L35" s="27">
+        <f>SUM(L3:L34)</f>
         <v>0</v>
       </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="28" t="n">
-        <f aca="false">SUM(N3:N34)</f>
+      <c r="N35" s="28">
+        <f>SUM(N3:N34)</f>
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="27" t="n">
-        <f aca="false">SUM(Q16:Q34)</f>
+      <c r="Q35" s="27">
+        <f>SUM(Q16:Q34)</f>
         <v>5</v>
       </c>
       <c r="R35" s="28"/>
-      <c r="S35" s="28" t="n">
-        <f aca="false">SUM(S16:S34)</f>
+      <c r="S35" s="28">
+        <f>SUM(S16:S34)</f>
         <v>0</v>
       </c>
     </row>
@@ -7754,10 +8811,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
